--- a/17-ASP.NET Core MVC/31_PROJECT DEFENSE/00. CSharp-ASP-NET-Core-Project-Defense-Schedule-11-August-2019.xlsx
+++ b/17-ASP.NET Core MVC/31_PROJECT DEFENSE/00. CSharp-ASP-NET-Core-Project-Defense-Schedule-11-August-2019.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\03. Work\Z_SVN\csharp-web\May-2019\ASP-NET-Core-Jul-2019\00. CSharp-ASP-NET-Core-Course-Introduction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD8806-D0A2-4AFD-8C0E-1AC1DFD19BE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="124">
   <si>
     <t>Username</t>
   </si>
@@ -458,11 +452,26 @@
   <si>
     <t>https://github.com/Dimulski/CodexBank</t>
   </si>
+  <si>
+    <t>Protein Shop</t>
+  </si>
+  <si>
+    <t>Movie DB</t>
+  </si>
+  <si>
+    <t>Car Rental</t>
+  </si>
+  <si>
+    <t>Good EShop</t>
+  </si>
+  <si>
+    <t>Have Demo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
@@ -590,7 +599,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -625,7 +634,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -802,40 +811,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="J22" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21.21875" customWidth="1"/>
-    <col min="12" max="13" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="71.33203125" customWidth="1"/>
-    <col min="15" max="15" width="64.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="71.28515625" customWidth="1"/>
+    <col min="15" max="15" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,7 +897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -910,7 +919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -932,7 +941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -954,7 +963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -976,7 +985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -998,7 +1007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1042,7 +1051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1108,7 +1117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1130,7 +1139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1152,7 +1161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1196,7 +1205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1218,7 +1227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1252,6 +1261,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N18" t="s">
+        <v>119</v>
+      </c>
       <c r="O18" t="s">
         <v>50</v>
       </c>
@@ -1262,7 +1274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1306,7 +1318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1328,7 +1340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1350,7 +1362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1372,7 +1384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1384,6 +1396,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N24" t="s">
+        <v>120</v>
+      </c>
       <c r="O24" t="s">
         <v>62</v>
       </c>
@@ -1394,7 +1409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -1416,7 +1431,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1438,7 +1453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1460,7 +1475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -1482,7 +1497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -1504,7 +1519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -1526,7 +1541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -1548,7 +1563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -1570,7 +1585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -1582,6 +1597,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N33" t="s">
+        <v>121</v>
+      </c>
       <c r="O33" t="s">
         <v>80</v>
       </c>
@@ -1592,7 +1610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -1614,7 +1632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1636,7 +1654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -1658,7 +1676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -1680,7 +1698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -1702,7 +1720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -1714,6 +1732,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N39" t="s">
+        <v>122</v>
+      </c>
       <c r="O39" t="s">
         <v>92</v>
       </c>
@@ -1724,7 +1745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -1746,7 +1767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -1758,6 +1779,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N41" t="s">
+        <v>123</v>
+      </c>
       <c r="O41" t="s">
         <v>96</v>
       </c>
@@ -1768,7 +1792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -1789,7 +1813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -1810,7 +1834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -1831,7 +1855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -1852,7 +1876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -1873,7 +1897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -1894,7 +1918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>112</v>
       </c>
@@ -1911,7 +1935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -1928,7 +1952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>117</v>
       </c>
